--- a/database/industries/kashi/kesave/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/kashi/kesave/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DCEB34-060A-487F-B195-0CD92312EBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE45D363-B3A4-47C3-9E8C-D01CE0CB9691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -630,7 +630,7 @@
     <col min="11" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +644,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +690,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +736,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,7 +822,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -858,7 +858,7 @@
         <v>8493673</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -894,7 +894,7 @@
         <v>-5916762</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
@@ -930,7 +930,7 @@
         <v>2576911</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
@@ -966,7 +966,7 @@
         <v>-344348</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>174054</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>2406617</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>-309</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>159824</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>2566132</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>-129565</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>2436567</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>2436567</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>4601</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>529550</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>4601</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/kashi/kesave/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/kashi/kesave/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\kashi\kesave\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE45D363-B3A4-47C3-9E8C-D01CE0CB9691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5877E927-E8B2-4E33-BDB2-338CDDE2FAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="1128" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>6 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>9 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-11-18 (4)</t>
-  </si>
-  <si>
     <t>1400-11-30 (3)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-28 (3)</t>
   </si>
   <si>
-    <t>1401-10-28 (6)</t>
+    <t>1402-03-21 (8)</t>
   </si>
   <si>
     <t>1401-04-31</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-03-21 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -623,11 +623,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
@@ -828,34 +829,34 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>2222260</v>
+        <v>3926676</v>
       </c>
       <c r="E11" s="13">
-        <v>3926676</v>
+        <v>5720925</v>
       </c>
       <c r="F11" s="13">
-        <v>5720925</v>
+        <v>1432962</v>
       </c>
       <c r="G11" s="13">
-        <v>1432962</v>
+        <v>3678147</v>
       </c>
       <c r="H11" s="13">
-        <v>3678147</v>
+        <v>5926156</v>
       </c>
       <c r="I11" s="13">
-        <v>5926156</v>
+        <v>8264141</v>
       </c>
       <c r="J11" s="13">
-        <v>8264141</v>
+        <v>2174890</v>
       </c>
       <c r="K11" s="13">
-        <v>2174890</v>
+        <v>5041738</v>
       </c>
       <c r="L11" s="13">
-        <v>5041738</v>
+        <v>8493673</v>
       </c>
       <c r="M11" s="13">
-        <v>8493673</v>
+        <v>12269063</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -864,34 +865,34 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-1221140</v>
+        <v>-2103105</v>
       </c>
       <c r="E12" s="11">
-        <v>-2103105</v>
+        <v>-3241424</v>
       </c>
       <c r="F12" s="11">
-        <v>-3241424</v>
+        <v>-1006925</v>
       </c>
       <c r="G12" s="11">
-        <v>-1006925</v>
+        <v>-2434802</v>
       </c>
       <c r="H12" s="11">
-        <v>-2434802</v>
+        <v>-3945265</v>
       </c>
       <c r="I12" s="11">
-        <v>-3945265</v>
+        <v>-5814438</v>
       </c>
       <c r="J12" s="11">
-        <v>-5814438</v>
+        <v>-1564449</v>
       </c>
       <c r="K12" s="11">
-        <v>-1564449</v>
+        <v>-3561357</v>
       </c>
       <c r="L12" s="11">
-        <v>-3561357</v>
+        <v>-5916762</v>
       </c>
       <c r="M12" s="11">
-        <v>-5916762</v>
+        <v>-8752609</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -900,34 +901,34 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>1001120</v>
+        <v>1823571</v>
       </c>
       <c r="E13" s="15">
-        <v>1823571</v>
+        <v>2479501</v>
       </c>
       <c r="F13" s="15">
-        <v>2479501</v>
+        <v>426037</v>
       </c>
       <c r="G13" s="15">
-        <v>426037</v>
+        <v>1243345</v>
       </c>
       <c r="H13" s="15">
-        <v>1243345</v>
+        <v>1980891</v>
       </c>
       <c r="I13" s="15">
-        <v>1980891</v>
+        <v>2449703</v>
       </c>
       <c r="J13" s="15">
-        <v>2449703</v>
+        <v>610441</v>
       </c>
       <c r="K13" s="15">
-        <v>610441</v>
+        <v>1480381</v>
       </c>
       <c r="L13" s="15">
-        <v>1480381</v>
+        <v>2576911</v>
       </c>
       <c r="M13" s="15">
-        <v>2576911</v>
+        <v>3516454</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -936,34 +937,34 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-69252</v>
+        <v>-161699</v>
       </c>
       <c r="E14" s="11">
-        <v>-161699</v>
+        <v>-206665</v>
       </c>
       <c r="F14" s="11">
-        <v>-206665</v>
+        <v>-48062</v>
       </c>
       <c r="G14" s="11">
-        <v>-48062</v>
+        <v>-127815</v>
       </c>
       <c r="H14" s="11">
-        <v>-127815</v>
+        <v>-164031</v>
       </c>
       <c r="I14" s="11">
-        <v>-164031</v>
+        <v>-327705</v>
       </c>
       <c r="J14" s="11">
-        <v>-327705</v>
+        <v>-77836</v>
       </c>
       <c r="K14" s="11">
-        <v>-77836</v>
+        <v>-196418</v>
       </c>
       <c r="L14" s="11">
-        <v>-196418</v>
+        <v>-344348</v>
       </c>
       <c r="M14" s="11">
-        <v>-344348</v>
+        <v>-760968</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -1008,34 +1009,34 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>7812</v>
+        <v>12710</v>
       </c>
       <c r="E16" s="11">
-        <v>12710</v>
+        <v>102054</v>
       </c>
       <c r="F16" s="11">
-        <v>102054</v>
+        <v>22025</v>
       </c>
       <c r="G16" s="11">
-        <v>22025</v>
+        <v>78397</v>
       </c>
       <c r="H16" s="11">
-        <v>78397</v>
+        <v>104415</v>
       </c>
       <c r="I16" s="11">
-        <v>104415</v>
+        <v>121493</v>
       </c>
       <c r="J16" s="11">
-        <v>121493</v>
+        <v>33486</v>
       </c>
       <c r="K16" s="11">
-        <v>33486</v>
+        <v>96247</v>
       </c>
       <c r="L16" s="11">
-        <v>96247</v>
+        <v>174054</v>
       </c>
       <c r="M16" s="11">
-        <v>174054</v>
+        <v>245879</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -1044,34 +1045,34 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>939680</v>
+        <v>1674582</v>
       </c>
       <c r="E17" s="15">
-        <v>1674582</v>
+        <v>2374890</v>
       </c>
       <c r="F17" s="15">
-        <v>2374890</v>
+        <v>400000</v>
       </c>
       <c r="G17" s="15">
-        <v>400000</v>
+        <v>1193927</v>
       </c>
       <c r="H17" s="15">
-        <v>1193927</v>
+        <v>1921275</v>
       </c>
       <c r="I17" s="15">
-        <v>1921275</v>
+        <v>2243491</v>
       </c>
       <c r="J17" s="15">
-        <v>2243491</v>
+        <v>566091</v>
       </c>
       <c r="K17" s="15">
-        <v>566091</v>
+        <v>1380210</v>
       </c>
       <c r="L17" s="15">
-        <v>1380210</v>
+        <v>2406617</v>
       </c>
       <c r="M17" s="15">
-        <v>2406617</v>
+        <v>3001365</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -1080,34 +1081,34 @@
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-6596</v>
+        <v>-8876</v>
       </c>
       <c r="E18" s="11">
-        <v>-8876</v>
+        <v>-12338</v>
       </c>
       <c r="F18" s="11">
-        <v>-12338</v>
+        <v>-1644</v>
       </c>
       <c r="G18" s="11">
-        <v>-1644</v>
+        <v>-2969</v>
       </c>
       <c r="H18" s="11">
-        <v>-2969</v>
+        <v>-3576</v>
       </c>
       <c r="I18" s="11">
-        <v>-3576</v>
+        <v>-4164</v>
       </c>
       <c r="J18" s="11">
-        <v>-4164</v>
+        <v>-202</v>
       </c>
       <c r="K18" s="11">
-        <v>-202</v>
+        <v>-254</v>
       </c>
       <c r="L18" s="11">
-        <v>-254</v>
+        <v>-309</v>
       </c>
       <c r="M18" s="11">
-        <v>-309</v>
+        <v>-36693</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -1116,34 +1117,34 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>126840</v>
+        <v>73170</v>
       </c>
       <c r="E19" s="13">
-        <v>73170</v>
+        <v>423962</v>
       </c>
       <c r="F19" s="13">
-        <v>423962</v>
+        <v>-10963</v>
       </c>
       <c r="G19" s="13">
-        <v>-10963</v>
+        <v>14198</v>
       </c>
       <c r="H19" s="13">
-        <v>14198</v>
+        <v>38248</v>
       </c>
       <c r="I19" s="13">
-        <v>38248</v>
+        <v>621110</v>
       </c>
       <c r="J19" s="13">
-        <v>621110</v>
+        <v>44441</v>
       </c>
       <c r="K19" s="13">
-        <v>44441</v>
+        <v>101335</v>
       </c>
       <c r="L19" s="13">
-        <v>101335</v>
+        <v>159824</v>
       </c>
       <c r="M19" s="13">
-        <v>159824</v>
+        <v>1184232</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -1152,34 +1153,34 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>1059924</v>
+        <v>1738876</v>
       </c>
       <c r="E20" s="17">
-        <v>1738876</v>
+        <v>2786514</v>
       </c>
       <c r="F20" s="17">
-        <v>2786514</v>
+        <v>387393</v>
       </c>
       <c r="G20" s="17">
-        <v>387393</v>
+        <v>1205156</v>
       </c>
       <c r="H20" s="17">
-        <v>1205156</v>
+        <v>1955947</v>
       </c>
       <c r="I20" s="17">
-        <v>1955947</v>
+        <v>2860437</v>
       </c>
       <c r="J20" s="17">
-        <v>2860437</v>
+        <v>610330</v>
       </c>
       <c r="K20" s="17">
-        <v>610330</v>
+        <v>1481291</v>
       </c>
       <c r="L20" s="17">
-        <v>1481291</v>
+        <v>2566132</v>
       </c>
       <c r="M20" s="17">
-        <v>2566132</v>
+        <v>4148904</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1188,34 +1189,34 @@
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-110261</v>
+        <v>-236705</v>
       </c>
       <c r="E21" s="13">
-        <v>-236705</v>
+        <v>-92930</v>
       </c>
       <c r="F21" s="13">
-        <v>-92930</v>
+        <v>-19420</v>
       </c>
       <c r="G21" s="13">
-        <v>-19420</v>
+        <v>-21906</v>
       </c>
       <c r="H21" s="13">
-        <v>-21906</v>
+        <v>-73256</v>
       </c>
       <c r="I21" s="13">
-        <v>-73256</v>
+        <v>-109568</v>
       </c>
       <c r="J21" s="13">
-        <v>-109568</v>
+        <v>-27549</v>
       </c>
       <c r="K21" s="13">
-        <v>-27549</v>
+        <v>-90350</v>
       </c>
       <c r="L21" s="13">
-        <v>-90350</v>
+        <v>-129565</v>
       </c>
       <c r="M21" s="13">
-        <v>-129565</v>
+        <v>-193406</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
@@ -1224,34 +1225,34 @@
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>949663</v>
+        <v>1502171</v>
       </c>
       <c r="E22" s="17">
-        <v>1502171</v>
+        <v>2693584</v>
       </c>
       <c r="F22" s="17">
-        <v>2693584</v>
+        <v>367973</v>
       </c>
       <c r="G22" s="17">
-        <v>367973</v>
+        <v>1183250</v>
       </c>
       <c r="H22" s="17">
-        <v>1183250</v>
+        <v>1882691</v>
       </c>
       <c r="I22" s="17">
-        <v>1882691</v>
+        <v>2750869</v>
       </c>
       <c r="J22" s="17">
-        <v>2750869</v>
+        <v>582781</v>
       </c>
       <c r="K22" s="17">
-        <v>582781</v>
+        <v>1390941</v>
       </c>
       <c r="L22" s="17">
-        <v>1390941</v>
+        <v>2436567</v>
       </c>
       <c r="M22" s="17">
-        <v>2436567</v>
+        <v>3955498</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -1296,34 +1297,34 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>949663</v>
+        <v>1502171</v>
       </c>
       <c r="E24" s="17">
-        <v>1502171</v>
+        <v>2693584</v>
       </c>
       <c r="F24" s="17">
-        <v>2693584</v>
+        <v>367973</v>
       </c>
       <c r="G24" s="17">
-        <v>367973</v>
+        <v>1183250</v>
       </c>
       <c r="H24" s="17">
-        <v>1183250</v>
+        <v>1882691</v>
       </c>
       <c r="I24" s="17">
-        <v>1882691</v>
+        <v>2750869</v>
       </c>
       <c r="J24" s="17">
-        <v>2750869</v>
+        <v>582781</v>
       </c>
       <c r="K24" s="17">
-        <v>582781</v>
+        <v>1390941</v>
       </c>
       <c r="L24" s="17">
-        <v>1390941</v>
+        <v>2436567</v>
       </c>
       <c r="M24" s="17">
-        <v>2436567</v>
+        <v>3955498</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
@@ -1332,34 +1333,34 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>1793</v>
+        <v>2837</v>
       </c>
       <c r="E25" s="13">
-        <v>2837</v>
+        <v>5087</v>
       </c>
       <c r="F25" s="13">
-        <v>5087</v>
+        <v>695</v>
       </c>
       <c r="G25" s="13">
-        <v>695</v>
+        <v>2234</v>
       </c>
       <c r="H25" s="13">
-        <v>2234</v>
+        <v>3555</v>
       </c>
       <c r="I25" s="13">
-        <v>3555</v>
+        <v>5195</v>
       </c>
       <c r="J25" s="13">
-        <v>5195</v>
+        <v>1101</v>
       </c>
       <c r="K25" s="13">
-        <v>1101</v>
+        <v>2627</v>
       </c>
       <c r="L25" s="13">
-        <v>2627</v>
+        <v>4601</v>
       </c>
       <c r="M25" s="13">
-        <v>4601</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
@@ -1404,34 +1405,34 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>1793</v>
+        <v>2837</v>
       </c>
       <c r="E27" s="13">
-        <v>2837</v>
+        <v>5087</v>
       </c>
       <c r="F27" s="13">
-        <v>5087</v>
+        <v>695</v>
       </c>
       <c r="G27" s="13">
-        <v>695</v>
+        <v>2234</v>
       </c>
       <c r="H27" s="13">
-        <v>2234</v>
+        <v>3555</v>
       </c>
       <c r="I27" s="13">
-        <v>3555</v>
+        <v>5195</v>
       </c>
       <c r="J27" s="13">
-        <v>5195</v>
+        <v>1101</v>
       </c>
       <c r="K27" s="13">
-        <v>1101</v>
+        <v>2627</v>
       </c>
       <c r="L27" s="13">
-        <v>2627</v>
+        <v>4601</v>
       </c>
       <c r="M27" s="13">
-        <v>4601</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
